--- a/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>52084</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39142</v>
+        <v>39187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67602</v>
+        <v>66483</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3275269706329048</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2461434667116605</v>
+        <v>0.2464238036409845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4251131992554304</v>
+        <v>0.4180769322439721</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -762,19 +762,19 @@
         <v>23760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17219</v>
+        <v>16939</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33343</v>
+        <v>31722</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2806848626036957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2034151536364781</v>
+        <v>0.2001025339841715</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3938919595361886</v>
+        <v>0.3747446780450472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -783,19 +783,19 @@
         <v>75844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62141</v>
+        <v>60491</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93497</v>
+        <v>91395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3112542835053131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2550198797726757</v>
+        <v>0.24824734433446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3836989182745806</v>
+        <v>0.3750741330498313</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>33579</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22944</v>
+        <v>22724</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46785</v>
+        <v>47308</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2111589471258104</v>
+        <v>0.2111589471258103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1442837670136091</v>
+        <v>0.1428986878363368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2942062108027491</v>
+        <v>0.2974925079151384</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>7589</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3907</v>
+        <v>3608</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12454</v>
+        <v>13013</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08965420806391688</v>
+        <v>0.08965420806391687</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04615016085858112</v>
+        <v>0.04262647097569101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1471210242923343</v>
+        <v>0.1537276378236714</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -854,19 +854,19 @@
         <v>41168</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29664</v>
+        <v>29302</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55908</v>
+        <v>54131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1689488783124909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1217394477380064</v>
+        <v>0.1202503767415148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2294403952824927</v>
+        <v>0.2221468940692155</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>14269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8159</v>
+        <v>8288</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24929</v>
+        <v>24843</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08973312605111057</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05130677287112036</v>
+        <v>0.05211892891348578</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1567679405713744</v>
+        <v>0.1562243783032928</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -904,19 +904,19 @@
         <v>11148</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6379</v>
+        <v>6109</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20083</v>
+        <v>19005</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1316982528747332</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07536224293205146</v>
+        <v>0.07216908108750716</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2372471713048674</v>
+        <v>0.2245153990802369</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -925,19 +925,19 @@
         <v>25418</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16824</v>
+        <v>16636</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37315</v>
+        <v>37369</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1043115771029867</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06904430787506319</v>
+        <v>0.06827214983982967</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1531378165248946</v>
+        <v>0.1533560747815513</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>27082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17177</v>
+        <v>18364</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37114</v>
+        <v>38850</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1703071267982799</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1080159082712131</v>
+        <v>0.1154828732014234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2333933709187694</v>
+        <v>0.2443075889762569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -975,19 +975,19 @@
         <v>15723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10142</v>
+        <v>10435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22365</v>
+        <v>23285</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.185741057906699</v>
+        <v>0.1857410579066989</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1198160797621366</v>
+        <v>0.1232674746656914</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2642114047127424</v>
+        <v>0.2750725698854656</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -996,19 +996,19 @@
         <v>42806</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32381</v>
+        <v>32239</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56908</v>
+        <v>56779</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1756687884023969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1328883346944127</v>
+        <v>0.1323038643690796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2335425167953869</v>
+        <v>0.2330145955688791</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>19047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11489</v>
+        <v>11561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29217</v>
+        <v>29225</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1197745415459967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07225000418913864</v>
+        <v>0.07269966435885487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1837319339790808</v>
+        <v>0.1837809879191068</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -1046,19 +1046,19 @@
         <v>19095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12676</v>
+        <v>13401</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26378</v>
+        <v>26850</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2255762243131062</v>
+        <v>0.2255762243131061</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1497455378444254</v>
+        <v>0.1583053966936302</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3116143571273314</v>
+        <v>0.3171871124859311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -1067,19 +1067,19 @@
         <v>38142</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28157</v>
+        <v>28144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50048</v>
+        <v>49875</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1565294561661565</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1155546277564387</v>
+        <v>0.1154983509540101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2053913988437892</v>
+        <v>0.2046815833009353</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>12960</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7049</v>
+        <v>6836</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23190</v>
+        <v>22889</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08149928784589752</v>
+        <v>0.08149928784589754</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04432821596783844</v>
+        <v>0.04298877375634449</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1458327913443128</v>
+        <v>0.1439398433238335</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1117,19 +1117,19 @@
         <v>7335</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3797</v>
+        <v>3949</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12868</v>
+        <v>13285</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08664539423784902</v>
+        <v>0.08664539423784899</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04485183646584302</v>
+        <v>0.04665026783280024</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1520133046529126</v>
+        <v>0.156935675173603</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -1138,19 +1138,19 @@
         <v>20295</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12661</v>
+        <v>12852</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30462</v>
+        <v>30864</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.08328701651065593</v>
+        <v>0.08328701651065591</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05195952601543107</v>
+        <v>0.05274308668235658</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1250128600738275</v>
+        <v>0.1266627786255545</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>352243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314786</v>
+        <v>318702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>388839</v>
+        <v>386701</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2790319896576066</v>
+        <v>0.2790319896576064</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2493598223395336</v>
+        <v>0.2524619855800914</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3080211818390925</v>
+        <v>0.3063280911074794</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>278</v>
@@ -1263,19 +1263,19 @@
         <v>214051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>189059</v>
+        <v>189814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>238911</v>
+        <v>237982</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2293955775781496</v>
+        <v>0.2293955775781497</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2026123239776938</v>
+        <v>0.2034215502407488</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.256038640450888</v>
+        <v>0.2550421312461923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>573</v>
@@ -1284,19 +1284,19 @@
         <v>566294</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>527934</v>
+        <v>522966</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>614064</v>
+        <v>611902</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2579359096009412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2404636287525366</v>
+        <v>0.2382011087065086</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2796944838460116</v>
+        <v>0.2787094679311668</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>226526</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>199273</v>
+        <v>198513</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>259213</v>
+        <v>257564</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1794439274979945</v>
+        <v>0.1794439274979944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1578556542147957</v>
+        <v>0.1572538245554938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2053370283400353</v>
+        <v>0.204030986880716</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>255</v>
@@ -1334,19 +1334,19 @@
         <v>177169</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>157121</v>
+        <v>155291</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>200112</v>
+        <v>197161</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1898699331988006</v>
+        <v>0.1898699331988007</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1683845669893731</v>
+        <v>0.1664233904935727</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2144572894886978</v>
+        <v>0.2112953397547569</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>459</v>
@@ -1355,19 +1355,19 @@
         <v>403694</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>369379</v>
+        <v>369747</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>445798</v>
+        <v>442335</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1838751069833966</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1682448700267122</v>
+        <v>0.1684125170122487</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2030526508181067</v>
+        <v>0.2014749029885</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>159859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>134908</v>
+        <v>135101</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185409</v>
+        <v>186436</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1266331162385833</v>
+        <v>0.1266331162385832</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1068681230020252</v>
+        <v>0.1070213396499654</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1468729911440768</v>
+        <v>0.1476869791587635</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>161</v>
@@ -1405,19 +1405,19 @@
         <v>118350</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99217</v>
+        <v>100962</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137478</v>
+        <v>138437</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1268345344805591</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1063299725797633</v>
+        <v>0.1082000533633207</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1473334666845974</v>
+        <v>0.1483614461274202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>311</v>
@@ -1426,19 +1426,19 @@
         <v>278209</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>247070</v>
+        <v>247264</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311719</v>
+        <v>310579</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1267187214461231</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1125358758781007</v>
+        <v>0.1126238153891783</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1419818878217191</v>
+        <v>0.1414629530508879</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>229752</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200381</v>
+        <v>204184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>262723</v>
+        <v>264965</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1819993111772689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1587330768410895</v>
+        <v>0.1617459379546893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2081181678366847</v>
+        <v>0.2098940945898449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>209</v>
@@ -1476,19 +1476,19 @@
         <v>156629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136161</v>
+        <v>135251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>177050</v>
+        <v>177820</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1678570080903597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1459220219086505</v>
+        <v>0.1449466740799462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1897429671551764</v>
+        <v>0.1905680819794175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>404</v>
@@ -1497,19 +1497,19 @@
         <v>386380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>351088</v>
+        <v>352035</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>425089</v>
+        <v>422290</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1759886600119616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1599137993538871</v>
+        <v>0.1603451220761798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1936197903273757</v>
+        <v>0.1923449243562232</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>211651</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>182888</v>
+        <v>182564</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>243702</v>
+        <v>247486</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1676608910905293</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1448760436307285</v>
+        <v>0.1446192431979665</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1930499513520285</v>
+        <v>0.196048072652012</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>199</v>
@@ -1547,19 +1547,19 @@
         <v>160155</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>140321</v>
+        <v>140757</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>180731</v>
+        <v>181010</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.171636624858897</v>
+        <v>0.1716366248588971</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1503806703420349</v>
+        <v>0.1508477436805256</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1936873094784831</v>
+        <v>0.1939862633114555</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>367</v>
@@ -1568,19 +1568,19 @@
         <v>371806</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>338993</v>
+        <v>334388</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>415747</v>
+        <v>410072</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1693506263946688</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1544046872112933</v>
+        <v>0.1523071537311648</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1893649065180524</v>
+        <v>0.1867797584993318</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>82346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63732</v>
+        <v>63720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103508</v>
+        <v>101926</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06523076433801768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05048610007528909</v>
+        <v>0.05047616002082471</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08199489272106418</v>
+        <v>0.0807414251418614</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -1618,19 +1618,19 @@
         <v>106753</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90411</v>
+        <v>90531</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126585</v>
+        <v>124447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1144063217932338</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09689260489715226</v>
+        <v>0.09702060008798041</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1356599745700473</v>
+        <v>0.1333681267800544</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>208</v>
@@ -1639,19 +1639,19 @@
         <v>189099</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164248</v>
+        <v>164055</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>216661</v>
+        <v>214604</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08613097556290873</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07481182137725079</v>
+        <v>0.07472406987437415</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09868484072540391</v>
+        <v>0.09774819162472873</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>198569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>174860</v>
+        <v>173690</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>224261</v>
+        <v>221362</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4124391578456319</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3631943839597909</v>
+        <v>0.360763538098273</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.465803903093239</v>
+        <v>0.459780940477013</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>220</v>
@@ -1764,19 +1764,19 @@
         <v>168572</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>149978</v>
+        <v>150053</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>187379</v>
+        <v>188682</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3539755101724349</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.314931230891429</v>
+        <v>0.3150878153845501</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3934663364915766</v>
+        <v>0.3962034520224132</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>395</v>
@@ -1785,19 +1785,19 @@
         <v>367141</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>336146</v>
+        <v>338055</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>396890</v>
+        <v>399284</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3833668272800888</v>
+        <v>0.3833668272800887</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3510018429284005</v>
+        <v>0.3529952571480059</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4144308137591761</v>
+        <v>0.4169303828218978</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>99316</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81012</v>
+        <v>82229</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118171</v>
+        <v>119274</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2062845618533556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.168265882271541</v>
+        <v>0.1707939593652204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2454489776454385</v>
+        <v>0.2477395156853148</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>149</v>
@@ -1835,19 +1835,19 @@
         <v>93880</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80873</v>
+        <v>78561</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108860</v>
+        <v>107522</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1971343263383854</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1698214134668346</v>
+        <v>0.1649656074677841</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2285886519743444</v>
+        <v>0.2257807330251116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>245</v>
@@ -1856,19 +1856,19 @@
         <v>193196</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>171024</v>
+        <v>170623</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>220880</v>
+        <v>218738</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2017344066332984</v>
+        <v>0.2017344066332983</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1785825264965927</v>
+        <v>0.1781634906494229</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2306414983366138</v>
+        <v>0.2284057521572846</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>48315</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34849</v>
+        <v>35797</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64127</v>
+        <v>63805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1003521587732367</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0723833189000305</v>
+        <v>0.07435200720879007</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1331959672866092</v>
+        <v>0.1325258484245062</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>65</v>
@@ -1906,19 +1906,19 @@
         <v>45363</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35115</v>
+        <v>35585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58303</v>
+        <v>55857</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09525616593752276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07373699382309198</v>
+        <v>0.07472401806042797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1224279336908366</v>
+        <v>0.1172908961042775</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>110</v>
@@ -1927,19 +1927,19 @@
         <v>93678</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77381</v>
+        <v>77825</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>111461</v>
+        <v>111531</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09781806461086651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08080061367339952</v>
+        <v>0.08126503201416352</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1163874651570547</v>
+        <v>0.1164603634291761</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>76984</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>59937</v>
+        <v>60668</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>94675</v>
+        <v>96691</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.159901187644906</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1244934775438065</v>
+        <v>0.1260105814032757</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1966463693172896</v>
+        <v>0.2008330296713436</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>86</v>
@@ -1977,19 +1977,19 @@
         <v>69466</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>57370</v>
+        <v>56628</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>84949</v>
+        <v>85466</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1458675116724243</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1204693048444598</v>
+        <v>0.1189102777297126</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1783800212781184</v>
+        <v>0.179464678063138</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>149</v>
@@ -1998,19 +1998,19 @@
         <v>146450</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>123463</v>
+        <v>125915</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>171018</v>
+        <v>173411</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1529226345925491</v>
+        <v>0.152922634592549</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1289190058750712</v>
+        <v>0.1314797723720875</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1785759206168312</v>
+        <v>0.1810747521693798</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>34242</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22574</v>
+        <v>22369</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51997</v>
+        <v>51117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07112294966005686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04688736764741987</v>
+        <v>0.04646190348558354</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1079998716315842</v>
+        <v>0.1061725887795907</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -2048,19 +2048,19 @@
         <v>71516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57767</v>
+        <v>57521</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86531</v>
+        <v>87062</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.150173625730697</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1213019042542821</v>
+        <v>0.1207846308277724</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1817014949852024</v>
+        <v>0.1828169241549752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -2069,19 +2069,19 @@
         <v>105759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88087</v>
+        <v>87329</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126097</v>
+        <v>128076</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1104326314473077</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09198052492530898</v>
+        <v>0.09118867857367048</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.131670182735243</v>
+        <v>0.1337362067940519</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>24024</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14768</v>
+        <v>15173</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38103</v>
+        <v>37313</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04989998422281297</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03067479002375546</v>
+        <v>0.03151514136272118</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07914148077045413</v>
+        <v>0.07750079524531943</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>37</v>
@@ -2119,19 +2119,19 @@
         <v>27427</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19386</v>
+        <v>19884</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>37196</v>
+        <v>37461</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05759286014853567</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04070858706227078</v>
+        <v>0.04175265378631565</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07810557598590484</v>
+        <v>0.07866336816598836</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>55</v>
@@ -2140,19 +2140,19 @@
         <v>51452</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>37580</v>
+        <v>38185</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>66954</v>
+        <v>65845</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.05372543543588966</v>
+        <v>0.05372543543588965</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03924054391295167</v>
+        <v>0.03987263132815343</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06991289609633673</v>
+        <v>0.06875510180787532</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>602896</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>556276</v>
+        <v>557931</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>651186</v>
+        <v>646738</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3168388366711498</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2923388242841891</v>
+        <v>0.2932085607545382</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3422167208737479</v>
+        <v>0.3398792785189497</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>530</v>
@@ -2265,19 +2265,19 @@
         <v>406383</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>373482</v>
+        <v>375170</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>438277</v>
+        <v>438572</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2720130456513832</v>
+        <v>0.2720130456513831</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2499908738198224</v>
+        <v>0.2511208953024004</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2933617989123761</v>
+        <v>0.293558820114331</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1041</v>
@@ -2286,19 +2286,19 @@
         <v>1009278</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>957516</v>
+        <v>954939</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1068786</v>
+        <v>1069511</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2971237090329695</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2818851412876363</v>
+        <v>0.281126735674405</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3146422996198652</v>
+        <v>0.3148557376350362</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>359420</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>322651</v>
+        <v>324531</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>399132</v>
+        <v>399476</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1888854625711076</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1695621236265385</v>
+        <v>0.1705500313595747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2097550202214989</v>
+        <v>0.2099357349422867</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>414</v>
@@ -2336,19 +2336,19 @@
         <v>278638</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>253680</v>
+        <v>257581</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>302734</v>
+        <v>309139</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1865072462165624</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1698011525962783</v>
+        <v>0.1724122669902465</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2026353079822199</v>
+        <v>0.2069227617053529</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>742</v>
@@ -2357,19 +2357,19 @@
         <v>638059</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>593784</v>
+        <v>592312</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>682923</v>
+        <v>686819</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1878394835060557</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1748052699447436</v>
+        <v>0.1743720450559751</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2010473369227366</v>
+        <v>0.2021940186368442</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>222443</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>195370</v>
+        <v>194607</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>257691</v>
+        <v>257166</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1168998787273744</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1026723204374192</v>
+        <v>0.1022714297382621</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1354238720521121</v>
+        <v>0.1351481693968887</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>241</v>
@@ -2407,19 +2407,19 @@
         <v>174862</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>152694</v>
+        <v>154149</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>199820</v>
+        <v>197911</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1170441253668454</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1022060133476687</v>
+        <v>0.1031800022320383</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1337500224561999</v>
+        <v>0.1324723265346942</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>449</v>
@@ -2428,19 +2428,19 @@
         <v>397304</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>358503</v>
+        <v>359544</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>437520</v>
+        <v>434613</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.116963320795966</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1055404632326568</v>
+        <v>0.1058469949267104</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1288024030356947</v>
+        <v>0.1279467572506761</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>333818</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>298268</v>
+        <v>297317</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>374201</v>
+        <v>374240</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1754310198642521</v>
+        <v>0.1754310198642522</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1567481212577925</v>
+        <v>0.1562483172860137</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1966534137109108</v>
+        <v>0.1966739133521231</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>317</v>
@@ -2478,19 +2478,19 @@
         <v>241817</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>216471</v>
+        <v>217974</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>267656</v>
+        <v>266989</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1618609113755029</v>
+        <v>0.1618609113755028</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1448950088690296</v>
+        <v>0.1459015335130476</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1791558961412019</v>
+        <v>0.1787093483547106</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>600</v>
@@ -2499,19 +2499,19 @@
         <v>575636</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>528345</v>
+        <v>529666</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>618532</v>
+        <v>623680</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1694626606934865</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1555405436939169</v>
+        <v>0.1559295887949928</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1820908600236707</v>
+        <v>0.1836065078465987</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>264940</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>230694</v>
+        <v>231628</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>303483</v>
+        <v>300856</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1392334006602806</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.121236049729303</v>
+        <v>0.1217268917665731</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1594887277154609</v>
+        <v>0.1581081367511508</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>310</v>
@@ -2549,19 +2549,19 @@
         <v>250767</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>223778</v>
+        <v>224817</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>277171</v>
+        <v>277033</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1678512911559174</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1497865972752219</v>
+        <v>0.1504818637890349</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1855247253879771</v>
+        <v>0.185432504212536</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>522</v>
@@ -2570,19 +2570,19 @@
         <v>515707</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>474296</v>
+        <v>470796</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>564393</v>
+        <v>557174</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1518200243655522</v>
+        <v>0.1518200243655523</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1396291003606591</v>
+        <v>0.1385985728394209</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1661530297746779</v>
+        <v>0.1640275576292173</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>119330</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>95331</v>
+        <v>95975</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>144760</v>
+        <v>146987</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0627114015058356</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05009924156866227</v>
+        <v>0.05043775448092162</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07607541737931321</v>
+        <v>0.07724575569008102</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>186</v>
@@ -2620,19 +2620,19 @@
         <v>141515</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>123768</v>
+        <v>121536</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>164187</v>
+        <v>161465</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09472338023378873</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08284412861476018</v>
+        <v>0.08135048895951463</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1098990534772499</v>
+        <v>0.108077263592036</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>285</v>
@@ -2641,19 +2641,19 @@
         <v>260845</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>232396</v>
+        <v>230683</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>292099</v>
+        <v>294533</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07679080160597011</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06841561488940355</v>
+        <v>0.06791135165206269</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08599175667734751</v>
+        <v>0.08670834085610325</v>
       </c>
     </row>
     <row r="31">
